--- a/participants/participant_27/participant_27_task_orders.xlsx
+++ b/participants/participant_27/participant_27_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1649873088574901" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730908998108" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730909008107" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1649873090947008" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730910100434" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650291212367313" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502912148271298" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502912148280983" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912148751407" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650291214939133" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730885348742.csv</t>
+          <t>go_stims-16502912123343117.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730885579073.csv</t>
+          <t>GNG_stims-16502912123513103.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498730885588982.csv</t>
+          <t>go_stims-16502912123533125.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730885739043.csv</t>
+          <t>GNG_stims-16502912123663125.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_2-16498730890018158.csv</t>
+          <t>ZB-match_4-16502912136001031.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16498730899528491.csv</t>
+          <t>ZB-match_0-16502912135591154.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16498730892158499.csv</t>
+          <t>TB-16502912145400999.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-1649873090542848.csv</t>
+          <t>OB-1650291214485101.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1649873090869811.csv</t>
+          <t>TB-16502912148010976.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_4-16498730886189055.csv</t>
+          <t>ZB-match_0-16502912135150976.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_6-16498730888998473.csv</t>
+          <t>OB-16502912144531276.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1649873089248845.csv</t>
+          <t>OB-16502912144241335.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16498730899978485.csv</t>
+          <t>TB-16502912145910983.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498730909150424.csv</t>
+          <t>MM_stims-16502912148431165.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-164987309090301.csv</t>
+          <t>ZM_stims-1650291214830101.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730909300127.csv</t>
+          <t>MM_stims-16502912148591006.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730909160087.csv</t>
+          <t>ZM_stims-16502912148440998.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498730909460416.csv</t>
+          <t>MM_stims-16502912148751407.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730909310079.csv</t>
+          <t>ZM_stims-1650291214860098.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730909940434.csv</t>
+          <t>vSAT_stims-16502912149071038.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730909620411.csv</t>
+          <t>SAT_stims-1650291214879109.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730909780433.csv</t>
+          <t>SAT_stims-16502912148910983.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730909500325.csv</t>
+          <t>vSAT_stims-16502912149231048.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_27/participant_27_task_orders.xlsx
+++ b/participants/participant_27/participant_27_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650291212367313" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502912148271298" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502912148280983" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912148751407" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650291214939133" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650477841661266" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778438076682" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778438086703" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778438566685" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778439196901" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502912123343117.csv</t>
+          <t>go_stims-16504778416282303.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912123513103.csv</t>
+          <t>GNG_stims-16504778416432695.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502912123533125.csv</t>
+          <t>go_stims-16504778416442668.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912123663125.csv</t>
+          <t>GNG_stims-16504778416592631.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_4-16502912136001031.csv</t>
+          <t>OB-16504778420186946.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_0-16502912135591154.csv</t>
+          <t>OB-1650477842308696.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16502912145400999.csv</t>
+          <t>ZB-match_2-16504778417827005.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1650291214485101.csv</t>
+          <t>TB-165047784284269.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16502912148010976.csv</t>
+          <t>OB-16504778424096625.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_0-16502912135150976.csv</t>
+          <t>ZB-match_7-1650477841880701.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16502912144531276.csv</t>
+          <t>ZB-match_3-1650477841671702.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16502912144241335.csv</t>
+          <t>TB-16504778437916718.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16502912145910983.csv</t>
+          <t>TB-16504778425886886.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912148431165.csv</t>
+          <t>MM_stims-16504778438236687.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291214830101.csv</t>
+          <t>ZM_stims-16504778438106701.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502912148591006.csv</t>
+          <t>MM_stims-1650477843839668.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912148440998.csv</t>
+          <t>ZM_stims-16504778438236687.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912148751407.csv</t>
+          <t>MM_stims-16504778438557017.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291214860098.csv</t>
+          <t>ZM_stims-16504778438406684.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912149071038.csv</t>
+          <t>SAT_stims-1650477843871697.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291214879109.csv</t>
+          <t>SAT_stims-16504778438596723.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912148910983.csv</t>
+          <t>vSAT_stims-1650477843887701.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912149231048.csv</t>
+          <t>vSAT_stims-16504778439037025.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_27/participant_27_task_orders.xlsx
+++ b/participants/participant_27/participant_27_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650477841661266" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778438076682" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778438086703" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778438566685" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778439196901" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961321501656" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961338068857" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961338068857" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961338548841" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961339268878" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778416282303.csv</t>
+          <t>go_stims-16509961321181524.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778416432695.csv</t>
+          <t>GNG_stims-16509961321341662.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778416442668.csv</t>
+          <t>go_stims-16509961321341662.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778416592631.csv</t>
+          <t>GNG_stims-16509961321501656.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16504778420186946.csv</t>
+          <t>TB-16509961337908444.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1650477842308696.csv</t>
+          <t>ZB-match_4-16509961323501673.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_2-16504778417827005.csv</t>
+          <t>TB-16509961333428776.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-165047784284269.csv</t>
+          <t>ZB-match_8-165099613250288.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16504778424096625.csv</t>
+          <t>OB-16509961327428467.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_7-1650477841880701.csv</t>
+          <t>OB-16509961332228456.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_3-1650477841671702.csv</t>
+          <t>ZB-match_6-16509961325428438.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16504778437916718.csv</t>
+          <t>TB-16509961334388468.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16504778425886886.csv</t>
+          <t>OB-16509961327108471.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778438236687.csv</t>
+          <t>MM_stims-16509961338228457.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778438106701.csv</t>
+          <t>ZM_stims-16509961338068857.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650477843839668.csv</t>
+          <t>MM_stims-16509961338388793.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778438236687.csv</t>
+          <t>ZM_stims-16509961338228457.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778438557017.csv</t>
+          <t>MM_stims-16509961338548841.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778438406684.csv</t>
+          <t>ZM_stims-16509961338388793.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650477843871697.csv</t>
+          <t>SAT_stims-16509961338708506.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778438596723.csv</t>
+          <t>vSAT_stims-16509961338948429.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477843887701.csv</t>
+          <t>vSAT_stims-1650996133910885.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778439037025.csv</t>
+          <t>SAT_stims-16509961338548841.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_27/participant_27_task_orders.xlsx
+++ b/participants/participant_27/participant_27_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961321501656" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961338068857" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961338068857" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961338548841" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961339268878" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511687320724819" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511687338695254" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511687338705213" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687339325495" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687339962044" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961321181524.csv</t>
+          <t>go_stims-1651168732032126.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961321341662.csv</t>
+          <t>GNG_stims-16511687320553246.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961321341662.csv</t>
+          <t>go_stims-16511687320571282.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961321501656.csv</t>
+          <t>GNG_stims-16511687320714862.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16509961337908444.csv</t>
+          <t>TB-1651168733018937.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_4-16509961323501673.csv</t>
+          <t>ZB-match_8-16511687323145483.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16509961333428776.csv</t>
+          <t>ZB-match_9-16511687321368103.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_8-165099613250288.csv</t>
+          <t>OB-16511687329103384.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16509961327428467.csv</t>
+          <t>ZB-match_2-16511687322549338.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16509961332228456.csv</t>
+          <t>OB-16511687329917502.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_6-16509961325428438.csv</t>
+          <t>TB-1651168733849486.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16509961334388468.csv</t>
+          <t>TB-1651168733227865.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16509961327108471.csv</t>
+          <t>OB-16511687325899022.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961338228457.csv</t>
+          <t>MM_stims-16511687338846729.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961338068857.csv</t>
+          <t>ZM_stims-1651168733872517.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961338388793.csv</t>
+          <t>MM_stims-16511687339157841.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961338228457.csv</t>
+          <t>ZM_stims-16511687338856297.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961338548841.csv</t>
+          <t>MM_stims-16511687339315498.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961338388793.csv</t>
+          <t>ZM_stims-16511687339157841.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961338708506.csv</t>
+          <t>vSAT_stims-16511687339803097.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961338948429.csv</t>
+          <t>SAT_stims-16511687339475572.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650996133910885.csv</t>
+          <t>SAT_stims-16511687339355483.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961338548841.csv</t>
+          <t>vSAT_stims-1651168733963656.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_27/participant_27_task_orders.xlsx
+++ b/participants/participant_27/participant_27_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511687320724819" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511687338695254" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511687338705213" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687339325495" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687339962044" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555566310518" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555599904544" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555599914553" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555600554547" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555601344533" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651168732032126.csv</t>
+          <t>go_stims-16512555565990508.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687320553246.csv</t>
+          <t>GNG_stims-16512555566130502.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511687320571282.csv</t>
+          <t>go_stims-16512555566150572.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687320714862.csv</t>
+          <t>GNG_stims-16512555566290507.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-1651168733018937.csv</t>
+          <t>TB-16512555587878757.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_8-16511687323145483.csv</t>
+          <t>OB-16512555582138758.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_9-16511687321368103.csv</t>
+          <t>TB-16512555599714537.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16511687329103384.csv</t>
+          <t>ZB-match_3-16512555571451917.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_2-16511687322549338.csv</t>
+          <t>ZB-match_9-16512555571951911.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16511687329917502.csv</t>
+          <t>TB-16512555586228735.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-1651168733849486.csv</t>
+          <t>OB-16512555582668757.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1651168733227865.csv</t>
+          <t>OB-1651255558575874.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16511687325899022.csv</t>
+          <t>ZB-match_0-16512555572912407.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687338846729.csv</t>
+          <t>MM_stims-16512555600224576.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168733872517.csv</t>
+          <t>ZM_stims-16512555599994588.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687339157841.csv</t>
+          <t>MM_stims-16512555600384576.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687338856297.csv</t>
+          <t>ZM_stims-165125556002346.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511687339315498.csv</t>
+          <t>MM_stims-16512555600544565.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687339157841.csv</t>
+          <t>ZM_stims-1651255560039458.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687339803097.csv</t>
+          <t>SAT_stims-16512555600874565.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687339475572.csv</t>
+          <t>vSAT_stims-16512555601184535.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687339355483.csv</t>
+          <t>vSAT_stims-16512555601024542.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168733963656.csv</t>
+          <t>SAT_stims-1651255560061455.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_27/participant_27_task_orders.xlsx
+++ b/participants/participant_27/participant_27_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555566310518" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555599904544" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555599914553" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555600554547" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555601344533" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="vSAT_TO-16515889935088773" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RS_TO-1651588993510725" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="GNG_TO-1651588993580242" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NB_TO-16515889954322972" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="TOL_TO-16515889954791708" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555565990508.csv</t>
+          <t>SAT_stims-16515889934346688.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555566130502.csv</t>
+          <t>SAT_stims-16515889934476664.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512555566150572.csv</t>
+          <t>vSAT_stims-16515889934621298.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555566290507.csv</t>
+          <t>vSAT_stims-16515889934771297.csv</t>
         </is>
       </c>
     </row>
@@ -490,6 +490,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>eyes open</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>eyes closed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>go_stims-1651588993516768.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GNG_stims-16515889935405855.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>go_stims-1651588993548523.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GNG_stims-1651588993580242.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -516,7 +628,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16512555587878757.csv</t>
+          <t>OB-16515889941773844.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +638,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16512555582138758.csv</t>
+          <t>ZB-match_6-16515889939621751.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +648,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16512555599714537.csv</t>
+          <t>TB-16515889954166768.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +658,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_3-16512555571451917.csv</t>
+          <t>OB-16515889943531215.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +668,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_9-16512555571951911.csv</t>
+          <t>OB-1651588994613055.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16512555586228735.csv</t>
+          <t>ZB-match_8-1651588993752906.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16512555582668757.csv</t>
+          <t>TB-16515889947068317.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +698,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1651255558575874.csv</t>
+          <t>ZB-match_3-16515889938033369.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +708,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_0-16512555572912407.csv</t>
+          <t>TB-16515889952581806.csv</t>
         </is>
       </c>
     </row>
@@ -605,53 +717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>eyes open</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -678,7 +744,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16512555600224576.csv</t>
+          <t>MM_stims-16515889954478898.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +754,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555599994588.csv</t>
+          <t>ZM_stims-16515889954322972.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +764,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16512555600384576.csv</t>
+          <t>MM_stims-16515889954635496.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +774,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-165125556002346.csv</t>
+          <t>ZM_stims-16515889954478898.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +784,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16512555600544565.csv</t>
+          <t>MM_stims-16515889954791708.csv</t>
         </is>
       </c>
     </row>
@@ -728,73 +794,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1651255560039458.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SAT_stims-16512555600874565.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>vSAT_stims-16512555601184535.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>vSAT_stims-16512555601024542.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SAT_stims-1651255560061455.csv</t>
+          <t>ZM_stims-16515889954635496.csv</t>
         </is>
       </c>
     </row>
